--- a/ANTEPROYECTO/planificacion Gantt.xlsx
+++ b/ANTEPROYECTO/planificacion Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Documents\TFG\TFG\ANTEPROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366AAFF1-968D-405E-BF29-0F4EDBB129E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A565D5E-1697-4A1F-8D7E-E0C1C19C4E89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2084,41 +2084,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2136,30 +2101,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2203,12 +2144,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="73" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2221,12 +2156,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
@@ -2372,41 +2301,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="49" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="72" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="59" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="16" fillId="3" borderId="63" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2444,9 +2340,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="91" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2507,6 +2400,113 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="5" borderId="58" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="49" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="72" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="59" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="16" fillId="10" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3127,46 +3127,46 @@
       <c r="B1" s="59"/>
       <c r="C1" s="15"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
       <c r="M1" s="17"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
+      <c r="N1" s="244"/>
+      <c r="O1" s="243"/>
+      <c r="P1" s="243"/>
+      <c r="Q1" s="243"/>
+      <c r="R1" s="243"/>
+      <c r="S1" s="243"/>
+      <c r="T1" s="243"/>
+      <c r="U1" s="243"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="243"/>
     </row>
     <row r="2" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="58"/>
       <c r="C2" s="16"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="243"/>
+      <c r="P2" s="243"/>
+      <c r="Q2" s="243"/>
+      <c r="R2" s="243"/>
+      <c r="S2" s="243"/>
+      <c r="T2" s="243"/>
+      <c r="U2" s="243"/>
+      <c r="V2" s="243"/>
+      <c r="W2" s="243"/>
     </row>
     <row r="3" spans="1:61" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -3175,69 +3175,69 @@
     <row r="4" spans="1:61" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="20"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="76"/>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="76"/>
-      <c r="BC4" s="76"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="76"/>
-      <c r="BF4" s="76"/>
-      <c r="BG4" s="76"/>
-      <c r="BH4" s="76"/>
-      <c r="BI4" s="77"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="237"/>
+      <c r="O4" s="237"/>
+      <c r="P4" s="237"/>
+      <c r="Q4" s="237"/>
+      <c r="R4" s="237"/>
+      <c r="S4" s="237"/>
+      <c r="T4" s="237"/>
+      <c r="U4" s="237"/>
+      <c r="V4" s="237"/>
+      <c r="W4" s="237"/>
+      <c r="X4" s="237"/>
+      <c r="Y4" s="237"/>
+      <c r="Z4" s="237"/>
+      <c r="AA4" s="237"/>
+      <c r="AB4" s="237"/>
+      <c r="AC4" s="237"/>
+      <c r="AD4" s="237"/>
+      <c r="AE4" s="237"/>
+      <c r="AF4" s="237"/>
+      <c r="AG4" s="237"/>
+      <c r="AH4" s="237"/>
+      <c r="AI4" s="237"/>
+      <c r="AJ4" s="237"/>
+      <c r="AK4" s="237"/>
+      <c r="AL4" s="237"/>
+      <c r="AM4" s="237"/>
+      <c r="AN4" s="237"/>
+      <c r="AO4" s="237"/>
+      <c r="AP4" s="237"/>
+      <c r="AQ4" s="237"/>
+      <c r="AR4" s="237"/>
+      <c r="AS4" s="237"/>
+      <c r="AT4" s="237"/>
+      <c r="AU4" s="237"/>
+      <c r="AV4" s="237"/>
+      <c r="AW4" s="237"/>
+      <c r="AX4" s="237"/>
+      <c r="AY4" s="237"/>
+      <c r="AZ4" s="237"/>
+      <c r="BA4" s="237"/>
+      <c r="BB4" s="237"/>
+      <c r="BC4" s="237"/>
+      <c r="BD4" s="237"/>
+      <c r="BE4" s="237"/>
+      <c r="BF4" s="237"/>
+      <c r="BG4" s="237"/>
+      <c r="BH4" s="237"/>
+      <c r="BI4" s="238"/>
     </row>
     <row r="5" spans="1:61" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="247"/>
+      <c r="B5" s="248" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="70"/>
+      <c r="C5" s="240"/>
       <c r="F5" s="21">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>-12</v>
@@ -3464,9 +3464,9 @@
       </c>
     </row>
     <row r="6" spans="1:61" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="79"/>
+      <c r="A6" s="247"/>
+      <c r="B6" s="249"/>
+      <c r="C6" s="241"/>
       <c r="F6" s="24" t="e">
         <f t="shared" ref="F6:AK6" si="3">LEFT(TEXT(F5,"ddd"),1)</f>
         <v>#VALUE!</v>
@@ -5201,6 +5201,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="N2:W2"/>
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="F2:L2"/>
     <mergeCell ref="BC4:BI4"/>
     <mergeCell ref="F4:L4"/>
     <mergeCell ref="M4:S4"/>
@@ -5209,13 +5216,6 @@
     <mergeCell ref="AH4:AN4"/>
     <mergeCell ref="AO4:AU4"/>
     <mergeCell ref="AV4:BB4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="N2:W2"/>
-    <mergeCell ref="N1:W1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:BI11">
     <cfRule type="expression" dxfId="8" priority="6">
@@ -5285,7 +5285,7 @@
   <dimension ref="A2:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:AE33"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5301,1383 +5301,1380 @@
   <sheetData>
     <row r="2" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:31" ht="13.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="230" t="s">
+      <c r="B3" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="230" t="s">
+      <c r="D3" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="226" t="s">
+      <c r="E3" s="250" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="227"/>
-      <c r="G3" s="223" t="s">
+      <c r="F3" s="251"/>
+      <c r="G3" s="271" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="97" t="s">
+      <c r="H3" s="259" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="123" t="s">
+      <c r="I3" s="260"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="261"/>
+      <c r="L3" s="265" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="97" t="s">
+      <c r="M3" s="260"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="266"/>
+      <c r="P3" s="259" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="123" t="s">
+      <c r="Q3" s="260"/>
+      <c r="R3" s="260"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="97" t="s">
+      <c r="U3" s="260"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="266"/>
+      <c r="X3" s="259" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="123" t="s">
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="260"/>
+      <c r="AA3" s="261"/>
+      <c r="AB3" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="99"/>
+      <c r="AC3" s="260"/>
+      <c r="AD3" s="260"/>
+      <c r="AE3" s="261"/>
     </row>
     <row r="4" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="231"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="137"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="102"/>
+      <c r="B4" s="258"/>
+      <c r="C4" s="270"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="267"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="268"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="264"/>
+      <c r="T4" s="267"/>
+      <c r="U4" s="263"/>
+      <c r="V4" s="263"/>
+      <c r="W4" s="268"/>
+      <c r="X4" s="262"/>
+      <c r="Y4" s="263"/>
+      <c r="Z4" s="263"/>
+      <c r="AA4" s="264"/>
+      <c r="AB4" s="267"/>
+      <c r="AC4" s="263"/>
+      <c r="AD4" s="263"/>
+      <c r="AE4" s="264"/>
     </row>
     <row r="5" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="113"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="138"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="96"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
     </row>
     <row r="6" spans="1:31" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="114"/>
-      <c r="C6" s="106" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="240"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="201"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="200"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="201"/>
-      <c r="S6" s="202"/>
-      <c r="T6" s="203"/>
-      <c r="U6" s="201"/>
-      <c r="V6" s="201"/>
-      <c r="W6" s="204"/>
-      <c r="X6" s="200"/>
-      <c r="Y6" s="201"/>
-      <c r="Z6" s="201"/>
-      <c r="AA6" s="202"/>
-      <c r="AB6" s="203"/>
-      <c r="AC6" s="201"/>
-      <c r="AD6" s="201"/>
-      <c r="AE6" s="202"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="178"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="177"/>
+      <c r="T6" s="178"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="179"/>
+      <c r="X6" s="175"/>
+      <c r="Y6" s="176"/>
+      <c r="Z6" s="176"/>
+      <c r="AA6" s="177"/>
+      <c r="AB6" s="178"/>
+      <c r="AC6" s="176"/>
+      <c r="AD6" s="176"/>
+      <c r="AE6" s="177"/>
     </row>
     <row r="7" spans="1:31" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="236">
+      <c r="E7" s="200">
         <v>45694</v>
       </c>
-      <c r="F7" s="237">
+      <c r="F7" s="201">
         <v>45709</v>
       </c>
-      <c r="G7" s="122">
+      <c r="G7" s="101">
         <v>30</v>
       </c>
-      <c r="H7" s="130"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="139"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="88"/>
-      <c r="AE7" s="93"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="80"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
-      <c r="B8" s="116" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="238">
+      <c r="E8" s="202">
         <v>45701</v>
       </c>
-      <c r="F8" s="251">
+      <c r="F8" s="214">
         <v>45716</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="87">
         <v>15</v>
       </c>
-      <c r="H8" s="132"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="140"/>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="94"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="81"/>
     </row>
     <row r="9" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="252">
+      <c r="E9" s="215">
         <v>45709</v>
       </c>
-      <c r="F9" s="251">
+      <c r="F9" s="214">
         <v>45716</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="126">
         <v>10</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="155"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="156"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="131"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="131"/>
     </row>
     <row r="10" spans="1:31" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="169"/>
-      <c r="C10" s="168" t="s">
+      <c r="B10" s="144"/>
+      <c r="C10" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="169"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="242"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="206"/>
-      <c r="J10" s="206"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="206"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="209"/>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="206"/>
-      <c r="R10" s="206"/>
-      <c r="S10" s="207"/>
-      <c r="T10" s="208"/>
-      <c r="U10" s="206"/>
-      <c r="V10" s="206"/>
-      <c r="W10" s="209"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="206"/>
-      <c r="Z10" s="206"/>
-      <c r="AA10" s="207"/>
-      <c r="AB10" s="208"/>
-      <c r="AC10" s="206"/>
-      <c r="AD10" s="206"/>
-      <c r="AE10" s="207"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="180"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="181"/>
+      <c r="S10" s="182"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="181"/>
+      <c r="V10" s="181"/>
+      <c r="W10" s="184"/>
+      <c r="X10" s="180"/>
+      <c r="Y10" s="181"/>
+      <c r="Z10" s="181"/>
+      <c r="AA10" s="182"/>
+      <c r="AB10" s="183"/>
+      <c r="AC10" s="181"/>
+      <c r="AD10" s="181"/>
+      <c r="AE10" s="182"/>
     </row>
     <row r="11" spans="1:31" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="175" t="s">
+      <c r="B11" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="175" t="s">
+      <c r="D11" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="253">
+      <c r="E11" s="216">
         <v>45705</v>
       </c>
-      <c r="F11" s="254">
+      <c r="F11" s="217">
         <v>45716</v>
       </c>
-      <c r="G11" s="176">
+      <c r="G11" s="151">
         <v>10</v>
       </c>
-      <c r="H11" s="157"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="158"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="159"/>
-      <c r="U11" s="158"/>
-      <c r="V11" s="158"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="157"/>
-      <c r="Y11" s="158"/>
-      <c r="Z11" s="158"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="159"/>
-      <c r="AC11" s="158"/>
-      <c r="AD11" s="158"/>
-      <c r="AE11" s="93"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="134"/>
+      <c r="AC11" s="133"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="80"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="255">
+      <c r="E12" s="218">
         <v>45719</v>
       </c>
-      <c r="F12" s="256">
+      <c r="F12" s="219">
         <v>45764</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G12" s="88">
         <v>20</v>
       </c>
-      <c r="H12" s="132"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="140"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="80"/>
-      <c r="AE12" s="94"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="81"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="161" t="s">
+      <c r="C13" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="255">
+      <c r="E13" s="218">
         <v>45729</v>
       </c>
-      <c r="F13" s="256">
+      <c r="F13" s="219">
         <v>45774</v>
       </c>
-      <c r="G13" s="109">
+      <c r="G13" s="88">
         <v>15</v>
       </c>
-      <c r="H13" s="132"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="140"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="80"/>
-      <c r="AD13" s="80"/>
-      <c r="AE13" s="94"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="81"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="255">
+      <c r="E14" s="218">
         <v>45733</v>
       </c>
-      <c r="F14" s="256">
+      <c r="F14" s="219">
         <v>45774</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G14" s="88">
         <v>30</v>
       </c>
-      <c r="H14" s="132"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="140"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="94"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
+      <c r="AE14" s="81"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="161" t="s">
+      <c r="C15" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="255">
+      <c r="E15" s="218">
         <v>45737</v>
       </c>
-      <c r="F15" s="256">
+      <c r="F15" s="219">
         <v>45784</v>
       </c>
-      <c r="G15" s="109">
+      <c r="G15" s="88">
         <v>20</v>
       </c>
-      <c r="H15" s="132"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="134"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="140"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="94"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="115"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="81"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="255">
+      <c r="E16" s="218">
         <v>45737</v>
       </c>
-      <c r="F16" s="256">
+      <c r="F16" s="219">
         <v>45784</v>
       </c>
-      <c r="G16" s="109">
+      <c r="G16" s="88">
         <v>20</v>
       </c>
-      <c r="H16" s="132"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="126"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="140"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="94"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="115"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="81"/>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="161" t="s">
+      <c r="C17" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="117" t="s">
+      <c r="D17" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="255">
+      <c r="E17" s="218">
         <v>45779</v>
       </c>
-      <c r="F17" s="256">
+      <c r="F17" s="219">
         <v>45788</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="88">
         <v>10</v>
       </c>
-      <c r="H17" s="132"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="126"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="140"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="80"/>
-      <c r="AE17" s="94"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="115"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="81"/>
     </row>
     <row r="18" spans="2:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="163" t="s">
+      <c r="D18" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="258">
+      <c r="E18" s="221">
         <v>45784</v>
       </c>
-      <c r="F18" s="259">
+      <c r="F18" s="222">
         <v>45815</v>
       </c>
-      <c r="G18" s="164">
+      <c r="G18" s="139">
         <v>25</v>
       </c>
-      <c r="H18" s="91"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="165"/>
-      <c r="V18" s="165"/>
-      <c r="W18" s="166"/>
-      <c r="X18" s="167"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="95"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="140"/>
+      <c r="V18" s="140"/>
+      <c r="W18" s="141"/>
+      <c r="X18" s="142"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="82"/>
     </row>
     <row r="19" spans="2:32" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="180"/>
-      <c r="C19" s="179" t="s">
+      <c r="B19" s="155"/>
+      <c r="C19" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="180"/>
-      <c r="E19" s="243"/>
-      <c r="F19" s="244"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="211"/>
-      <c r="K19" s="212"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="211"/>
-      <c r="N19" s="211"/>
-      <c r="O19" s="214"/>
-      <c r="P19" s="210"/>
-      <c r="Q19" s="211"/>
-      <c r="R19" s="211"/>
-      <c r="S19" s="212"/>
-      <c r="T19" s="213"/>
-      <c r="U19" s="211"/>
-      <c r="V19" s="211"/>
-      <c r="W19" s="214"/>
-      <c r="X19" s="210"/>
-      <c r="Y19" s="211"/>
-      <c r="Z19" s="211"/>
-      <c r="AA19" s="212"/>
-      <c r="AB19" s="213"/>
-      <c r="AC19" s="211"/>
-      <c r="AD19" s="211"/>
-      <c r="AE19" s="212"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="188"/>
+      <c r="M19" s="186"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="189"/>
+      <c r="P19" s="185"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="186"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="188"/>
+      <c r="U19" s="186"/>
+      <c r="V19" s="186"/>
+      <c r="W19" s="189"/>
+      <c r="X19" s="185"/>
+      <c r="Y19" s="186"/>
+      <c r="Z19" s="186"/>
+      <c r="AA19" s="187"/>
+      <c r="AB19" s="188"/>
+      <c r="AC19" s="186"/>
+      <c r="AD19" s="186"/>
+      <c r="AE19" s="187"/>
     </row>
     <row r="20" spans="2:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="172" t="s">
+      <c r="B20" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="171" t="s">
+      <c r="C20" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="172" t="s">
+      <c r="D20" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="268">
+      <c r="E20" s="231">
         <v>45729</v>
       </c>
-      <c r="F20" s="269">
+      <c r="F20" s="232">
         <v>45743</v>
       </c>
-      <c r="G20" s="171">
+      <c r="G20" s="146">
         <v>5</v>
       </c>
-      <c r="H20" s="146"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="257"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="146"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="131"/>
-      <c r="AB20" s="125"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="131"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="220"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="108"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="245" t="s">
+      <c r="E21" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="270">
+      <c r="F21" s="233">
         <v>45751</v>
       </c>
-      <c r="G21" s="110">
+      <c r="G21" s="89">
         <v>5</v>
       </c>
-      <c r="H21" s="132"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="140"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="80"/>
-      <c r="AE21" s="94"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="115"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="81"/>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="110" t="s">
+      <c r="C22" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="271">
+      <c r="E22" s="234">
         <v>45754</v>
       </c>
-      <c r="F22" s="270">
+      <c r="F22" s="233">
         <v>45774</v>
       </c>
-      <c r="G22" s="110">
+      <c r="G22" s="89">
         <v>15</v>
       </c>
-      <c r="H22" s="132"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="140"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="140"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="80"/>
-      <c r="AD22" s="80"/>
-      <c r="AE22" s="94"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="115"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="81"/>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="271">
+      <c r="E23" s="234">
         <v>45760</v>
       </c>
-      <c r="F23" s="246" t="s">
+      <c r="F23" s="210" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="110">
+      <c r="G23" s="89">
         <v>10</v>
       </c>
-      <c r="H23" s="132"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="140"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="149"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="140"/>
-      <c r="X23" s="132"/>
-      <c r="Y23" s="80"/>
-      <c r="Z23" s="80"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="80"/>
-      <c r="AD23" s="80"/>
-      <c r="AE23" s="94"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="115"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="81"/>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="271">
+      <c r="E24" s="234">
         <v>45760</v>
       </c>
-      <c r="F24" s="246" t="s">
+      <c r="F24" s="210" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="110">
+      <c r="G24" s="89">
         <v>10</v>
       </c>
-      <c r="H24" s="132"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="149"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="140"/>
-      <c r="X24" s="132"/>
-      <c r="Y24" s="80"/>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="80"/>
-      <c r="AD24" s="80"/>
-      <c r="AE24" s="94"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="124"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="115"/>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="81"/>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="271">
+      <c r="E25" s="234">
         <v>45768</v>
       </c>
-      <c r="F25" s="270">
+      <c r="F25" s="233">
         <v>45781</v>
       </c>
-      <c r="G25" s="110">
+      <c r="G25" s="89">
         <v>10</v>
       </c>
-      <c r="H25" s="132"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="140"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="149"/>
-      <c r="T25" s="144"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="140"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="80"/>
-      <c r="AD25" s="80"/>
-      <c r="AE25" s="94"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="119"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="115"/>
+      <c r="X25" s="109"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="81"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="271">
+      <c r="E26" s="234">
         <v>45778</v>
       </c>
-      <c r="F26" s="270">
+      <c r="F26" s="233">
         <v>45802</v>
       </c>
-      <c r="G26" s="110">
+      <c r="G26" s="89">
         <v>20</v>
       </c>
-      <c r="H26" s="132"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="150"/>
-      <c r="T26" s="144"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="140"/>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="80"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="80"/>
-      <c r="AD26" s="80"/>
-      <c r="AE26" s="94"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="115"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="81"/>
     </row>
     <row r="27" spans="2:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="183" t="s">
+      <c r="B27" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="182" t="s">
+      <c r="C27" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="183" t="s">
+      <c r="D27" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="272">
+      <c r="E27" s="235">
         <v>45790</v>
       </c>
-      <c r="F27" s="273">
+      <c r="F27" s="236">
         <v>45808</v>
       </c>
-      <c r="G27" s="182">
+      <c r="G27" s="157">
         <v>15</v>
       </c>
-      <c r="H27" s="153"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="155"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="184"/>
-      <c r="T27" s="185"/>
-      <c r="U27" s="186"/>
-      <c r="V27" s="186"/>
-      <c r="W27" s="187"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="156"/>
-      <c r="AB27" s="112"/>
-      <c r="AC27" s="86"/>
-      <c r="AD27" s="86"/>
-      <c r="AE27" s="156"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="159"/>
+      <c r="T27" s="160"/>
+      <c r="U27" s="161"/>
+      <c r="V27" s="161"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="131"/>
+      <c r="AB27" s="91"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="131"/>
     </row>
     <row r="28" spans="2:32" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="198"/>
-      <c r="C28" s="197" t="s">
+      <c r="B28" s="173"/>
+      <c r="C28" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="198"/>
-      <c r="E28" s="247"/>
-      <c r="F28" s="248"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="215"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="216"/>
-      <c r="K28" s="217"/>
-      <c r="L28" s="218"/>
-      <c r="M28" s="216"/>
-      <c r="N28" s="216"/>
-      <c r="O28" s="219"/>
-      <c r="P28" s="215"/>
-      <c r="Q28" s="216"/>
-      <c r="R28" s="216"/>
-      <c r="S28" s="217"/>
-      <c r="T28" s="218"/>
-      <c r="U28" s="216"/>
-      <c r="V28" s="216"/>
-      <c r="W28" s="219"/>
-      <c r="X28" s="215"/>
-      <c r="Y28" s="216"/>
-      <c r="Z28" s="216"/>
-      <c r="AA28" s="217"/>
-      <c r="AB28" s="218"/>
-      <c r="AC28" s="216"/>
-      <c r="AD28" s="216"/>
-      <c r="AE28" s="217"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="191"/>
+      <c r="J28" s="191"/>
+      <c r="K28" s="192"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="191"/>
+      <c r="N28" s="191"/>
+      <c r="O28" s="194"/>
+      <c r="P28" s="190"/>
+      <c r="Q28" s="191"/>
+      <c r="R28" s="191"/>
+      <c r="S28" s="192"/>
+      <c r="T28" s="193"/>
+      <c r="U28" s="191"/>
+      <c r="V28" s="191"/>
+      <c r="W28" s="194"/>
+      <c r="X28" s="190"/>
+      <c r="Y28" s="191"/>
+      <c r="Z28" s="191"/>
+      <c r="AA28" s="192"/>
+      <c r="AB28" s="193"/>
+      <c r="AC28" s="191"/>
+      <c r="AD28" s="191"/>
+      <c r="AE28" s="192"/>
     </row>
     <row r="29" spans="2:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="192" t="s">
+      <c r="C29" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="193" t="s">
+      <c r="D29" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="260">
+      <c r="E29" s="223">
         <v>45804</v>
       </c>
-      <c r="F29" s="267">
+      <c r="F29" s="230">
         <v>45818</v>
       </c>
-      <c r="G29" s="194">
+      <c r="G29" s="169">
         <v>35</v>
       </c>
-      <c r="H29" s="146"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="131"/>
-      <c r="T29" s="125"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="261"/>
-      <c r="X29" s="195"/>
-      <c r="Y29" s="196"/>
-      <c r="Z29" s="263"/>
-      <c r="AA29" s="262"/>
-      <c r="AB29" s="125"/>
-      <c r="AC29" s="88"/>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="131"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="224"/>
+      <c r="X29" s="170"/>
+      <c r="Y29" s="171"/>
+      <c r="Z29" s="226"/>
+      <c r="AA29" s="225"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="108"/>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B30" s="188" t="s">
+      <c r="B30" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="188" t="s">
+      <c r="C30" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="264">
+      <c r="E30" s="227">
         <v>45815</v>
       </c>
-      <c r="F30" s="264">
+      <c r="F30" s="227">
         <v>45822</v>
       </c>
-      <c r="G30" s="111">
+      <c r="G30" s="90">
         <v>5</v>
       </c>
-      <c r="H30" s="132"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="140"/>
-      <c r="P30" s="132"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="140"/>
-      <c r="X30" s="132"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="150"/>
-      <c r="AB30" s="145"/>
-      <c r="AC30" s="80"/>
-      <c r="AD30" s="80"/>
-      <c r="AE30" s="94"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="115"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="125"/>
+      <c r="AB30" s="120"/>
+      <c r="AC30" s="67"/>
+      <c r="AD30" s="67"/>
+      <c r="AE30" s="81"/>
     </row>
     <row r="31" spans="2:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="190" t="s">
+      <c r="B31" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="189" t="s">
+      <c r="C31" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="190" t="s">
+      <c r="D31" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="249"/>
-      <c r="F31" s="250"/>
-      <c r="G31" s="191"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="143"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="127"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="143"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="266"/>
-      <c r="AC31" s="265"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="95"/>
+      <c r="E31" s="273">
+        <v>45839</v>
+      </c>
+      <c r="F31" s="213"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="229"/>
+      <c r="AC31" s="228"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="82"/>
     </row>
     <row r="32" spans="2:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="221"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="232"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="221"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="120"/>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="120"/>
-      <c r="AC32" s="120"/>
-      <c r="AD32" s="120"/>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="120"/>
+      <c r="B32" s="196"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="99"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="99"/>
+      <c r="AA32" s="99"/>
+      <c r="AB32" s="99"/>
+      <c r="AC32" s="99"/>
+      <c r="AD32" s="99"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="99"/>
     </row>
     <row r="33" spans="2:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="90"/>
-      <c r="D33" s="233" t="s">
+      <c r="B33" s="77"/>
+      <c r="D33" s="254" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="234"/>
-      <c r="F33" s="235"/>
-      <c r="G33" s="220">
+      <c r="E33" s="255"/>
+      <c r="F33" s="256"/>
+      <c r="G33" s="195">
         <f>SUM(G7:G31)</f>
         <v>335</v>
       </c>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="120"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="120"/>
-      <c r="T33" s="120"/>
-      <c r="U33" s="120"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="120"/>
-      <c r="X33" s="120"/>
-      <c r="Y33" s="120"/>
-      <c r="Z33" s="120"/>
-      <c r="AA33" s="120"/>
-      <c r="AB33" s="120"/>
-      <c r="AC33" s="120"/>
-      <c r="AD33" s="120"/>
-      <c r="AE33" s="120"/>
-      <c r="AF33" s="120"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="99"/>
+      <c r="V33" s="99"/>
+      <c r="W33" s="99"/>
+      <c r="X33" s="99"/>
+      <c r="Y33" s="99"/>
+      <c r="Z33" s="99"/>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="99"/>
+      <c r="AC33" s="99"/>
+      <c r="AD33" s="99"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="99"/>
     </row>
     <row r="34" spans="2:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="120"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="120"/>
-      <c r="AB34" s="120"/>
-      <c r="AC34" s="120"/>
-      <c r="AD34" s="120"/>
-      <c r="AE34" s="120"/>
-      <c r="AF34" s="120"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="99"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="99"/>
+      <c r="X34" s="99"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="99"/>
+      <c r="AC34" s="99"/>
+      <c r="AD34" s="99"/>
+      <c r="AE34" s="99"/>
+      <c r="AF34" s="99"/>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="120"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="120"/>
-      <c r="T35" s="120"/>
-      <c r="U35" s="120"/>
-      <c r="V35" s="120"/>
-      <c r="W35" s="120"/>
-      <c r="X35" s="120"/>
-      <c r="Y35" s="120"/>
-      <c r="Z35" s="120"/>
-      <c r="AA35" s="120"/>
-      <c r="AB35" s="120"/>
-      <c r="AC35" s="120"/>
-      <c r="AD35" s="120"/>
-      <c r="AE35" s="120"/>
-      <c r="AF35" s="120"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="99"/>
+      <c r="V35" s="99"/>
+      <c r="W35" s="99"/>
+      <c r="X35" s="99"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="99"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="99"/>
+      <c r="AE35" s="99"/>
+      <c r="AF35" s="99"/>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="120"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="120"/>
-      <c r="V36" s="120"/>
-      <c r="W36" s="120"/>
-      <c r="X36" s="120"/>
-      <c r="Y36" s="120"/>
-      <c r="Z36" s="120"/>
-      <c r="AA36" s="120"/>
-      <c r="AB36" s="120"/>
-      <c r="AC36" s="120"/>
-      <c r="AD36" s="120"/>
-      <c r="AE36" s="120"/>
-      <c r="AF36" s="120"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="99"/>
+      <c r="V36" s="99"/>
+      <c r="W36" s="99"/>
+      <c r="X36" s="99"/>
+      <c r="Y36" s="99"/>
+      <c r="Z36" s="99"/>
+      <c r="AA36" s="99"/>
+      <c r="AB36" s="99"/>
+      <c r="AC36" s="99"/>
+      <c r="AD36" s="99"/>
+      <c r="AE36" s="99"/>
+      <c r="AF36" s="99"/>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="K39" s="120"/>
+      <c r="K39" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H3:K4"/>
-    <mergeCell ref="L3:O4"/>
     <mergeCell ref="P3:S4"/>
     <mergeCell ref="T3:W4"/>
     <mergeCell ref="X3:AA4"/>
@@ -6685,6 +6682,11 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H3:K4"/>
+    <mergeCell ref="L3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6816,35 +6818,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7156,34 +7129,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7204,6 +7179,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>